--- a/biology/Neurosciences/Gyrus_frontal_supérieur/Gyrus_frontal_supérieur.xlsx
+++ b/biology/Neurosciences/Gyrus_frontal_supérieur/Gyrus_frontal_supérieur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gyrus_frontal_sup%C3%A9rieur</t>
+          <t>Gyrus_frontal_supérieur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Le gyrus frontal supérieur F1 est un gyrus du lobe frontal du cortex cérébral, situé sur la convexité hémisphérique et limité en bas par le sillon frontal supérieur.
 Ce gyrus comporte deux segments :
